--- a/data/Конкуренция. Трофические связи (Общая экология)(1-79).xlsx
+++ b/data/Конкуренция. Трофические связи (Общая экология)(1-79).xlsx
@@ -37,7 +37,7 @@
     <t>st055852@student.spbu.ru</t>
   </si>
   <si>
-    <t>st092135@ad.pu.ru</t>
+    <t>st092135@student.spbu.ru</t>
   </si>
   <si>
     <t>st076316@student.spbu.ru</t>
@@ -264,17 +264,78 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,55 +362,25 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,17 +392,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,29 +408,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -413,17 +415,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,187 +431,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,31 +625,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,24 +657,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,169 +705,173 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1215,7 +1209,7 @@
   <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1272,7 +1266,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7">
@@ -1864,6 +1858,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId2" display="st092135@student.spbu.ru"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
